--- a/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7B165-FB90-4C53-93C9-6D25D6EFA26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2364F8-5A35-4F79-8423-3230E39962F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,153 +217,6 @@
     <t>主動申報繳納稅款註記</t>
   </si>
   <si>
-    <t>${table:data.O_IL_SMALLNO}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_POSTNO}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_CUSTID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_PRICECONDITON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_CURRENCY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_NEWCROSSWEIGHT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_NEWCTN}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_CTNUNIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>O_IL_MARK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.O_IL_SMALLNO_ID}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -382,7 +235,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -415,7 +267,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -507,6 +358,42 @@
   </si>
   <si>
     <t>${table:data.O_IL_TAXPAYMENTMEMO}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_SMALLNOEX_NOREPEAT}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_POSTNOEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_CUSTIDEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_PRICECONDITONEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_CURRENCYEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_NEWCROSSWEIGHTEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_NEWCTNEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_CTNUNITEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_MARKEX_NOREPEAT}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +404,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1213,7 +1100,7 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,7 +1118,7 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,10 +1127,10 @@
     <xf numFmtId="49" fontId="29" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,283 +1209,7 @@
     <cellStyle name="警告文本" xfId="41" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="쉼표 [0] 10" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -2489,262 +2100,262 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="S5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="AE5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:Z4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="78" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="76" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="41">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="74" priority="38">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="72" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="70" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="66" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="64" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="60" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A2000">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$A5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$A5="G1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="46" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC3">
-    <cfRule type="duplicateValues" dxfId="45" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="44" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="duplicateValues" dxfId="43" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
     <cfRule type="expression" dxfId="3" priority="3">

--- a/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2364F8-5A35-4F79-8423-3230E39962F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9133AD4-596E-43CD-9B42-6DFAE62D5E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
-    <sheet name="EXCEL格式" sheetId="1" r:id="rId2"/>
+    <sheet name="EXCEL格式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EXCEL格式!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EXCEL格式!$A$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -1826,24 +1825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9133AD4-596E-43CD-9B42-6DFAE62D5E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDA6EC-01AB-4844-861E-83002C98D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EXCEL格式" sheetId="1" r:id="rId1"/>
+    <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
+    <sheet name="EXCEL格式" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EXCEL格式!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EXCEL格式!$A$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -300,38 +301,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.O_IL_NEWSENDENAME}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_NEWCOUNTRYID}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_NEWSENDADDRESS}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_GETID}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_GETNO}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_GETENAME}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_GETPHONE}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_GETADDRESS}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.O_IL_DWKIND}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -349,10 +318,6 @@
   </si>
   <si>
     <t>${table:data.O_IL_DECLAREMEMO1}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.O_IL_DECLAREMEMO2}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -393,6 +358,42 @@
   </si>
   <si>
     <t>${table:data.O_IL_MARKEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_DECLAREMEMO2EX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_GETADDRESSEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_GETPHONEEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_GETENAMEEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_GETNOEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_GETIDEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_NEWSENDADDRESSEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_NEWCOUNTRYIDEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_NEWSENDENAMEEX_NOREPEAT}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1825,8 +1826,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2083,31 +2100,31 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>59</v>
@@ -2152,49 +2169,49 @@
         <v>71</v>
       </c>
       <c r="X5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL5" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDA6EC-01AB-4844-861E-83002C98D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A8996-C3AA-4CA7-B6E7-AFE80443F19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.O_IL_TAXPAYMENTMEMO}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.O_IL_SMALLNOEX_NOREPEAT}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -394,6 +390,10 @@
   </si>
   <si>
     <t>${table:data.O_IL_NEWSENDENAMEEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_TAXPAYMENTMEMOEX_NOREPEAT}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2100,31 +2100,31 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>59</v>
@@ -2169,28 +2169,28 @@
         <v>71</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>72</v>
@@ -2208,10 +2208,10 @@
         <v>76</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例(海運).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A8996-C3AA-4CA7-B6E7-AFE80443F19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C24C374-46FE-4496-B7CF-28FABDC129F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>海運快遞進口貨物清單</t>
   </si>
@@ -394,6 +394,10 @@
   </si>
   <si>
     <t>${table:data.O_IL_TAXPAYMENTMEMOEX_NOREPEAT}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_IL_INVOICECOST2}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2154,7 +2158,7 @@
         <v>67</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>68</v>
